--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>VMAR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>2900</v>
-      </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="I8" s="3">
-        <v>900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="3">
-        <v>500</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,13 +824,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>-100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -922,14 +944,17 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>3600</v>
       </c>
       <c r="E17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1032,34 +1065,37 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-300</v>
-      </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1140,22 +1185,25 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-300</v>
-      </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1380,43 +1449,49 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-300</v>
-      </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-300</v>
-      </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,16 +1618,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1648,19 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1591,20 +1680,23 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,19 +1712,22 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="E44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1649,19 +1744,22 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1678,19 +1776,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>15200</v>
       </c>
       <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="3">
+        <v>1500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1707,48 +1808,54 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1765,37 +1872,43 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>8100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1866,23 +1985,26 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600</v>
+        <v>29000</v>
       </c>
       <c r="E54" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2094,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1994,19 +2124,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2023,19 +2156,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2052,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2081,19 +2220,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2554,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1700</v>
+        <v>-9000</v>
       </c>
       <c r="E72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-1300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2682,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-300</v>
-      </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,25 +2831,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,26 +3021,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3069,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,26 +3163,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,25 +3337,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3124,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,25 +3401,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3180,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>VMAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
-        <v>1900</v>
-      </c>
       <c r="F8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>2300</v>
-      </c>
       <c r="I8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,17 +838,18 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>-100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,14 +970,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2700</v>
+        <v>-3300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,37 +1102,40 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2500</v>
+        <v>-3100</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,45 +1178,51 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2700</v>
+        <v>-3300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1188,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1196,14 +1242,17 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1452,46 +1522,52 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,20 +1705,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11400</v>
+        <v>7500</v>
       </c>
       <c r="E41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,19 +1738,22 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1683,22 +1773,25 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>500</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1715,22 +1808,25 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1843,25 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1779,22 +1878,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15200</v>
+        <v>12800</v>
       </c>
       <c r="E46" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>1400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1913,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1837,14 +1942,17 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1852,13 +1960,13 @@
         <v>3400</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1875,16 +1983,19 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1901,14 +2012,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,8 +2105,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1997,14 +2117,17 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,22 +2158,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29000</v>
+        <v>25700</v>
       </c>
       <c r="E54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>2300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2225,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,13 +2270,13 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2159,23 +2293,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2328,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2200,13 +2340,13 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>1300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2223,22 +2363,25 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,14 +2410,14 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9000</v>
+        <v>-11600</v>
       </c>
       <c r="E72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25000</v>
+        <v>21700</v>
       </c>
       <c r="E76" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2841,19 +3040,19 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,29 +3238,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2800</v>
+        <v>-3400</v>
       </c>
       <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,29 +3290,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,29 +3393,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,29 +3583,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,28 +3653,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3434,6 +3686,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -731,7 +731,7 @@
         <v>900</v>
       </c>
       <c r="F8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -1000,13 +1000,13 @@
         <v>3900</v>
       </c>
       <c r="E17" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F17" s="3">
         <v>3600</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1038,7 +1038,7 @@
         <v>-2600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1292,13 +1292,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1327,13 +1327,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1537,13 +1537,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1607,13 +1607,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -1715,7 +1715,7 @@
         <v>7500</v>
       </c>
       <c r="E41" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
@@ -1791,7 +1791,7 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1887,10 +1887,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="E46" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
@@ -1957,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
         <v>3300</v>
@@ -1995,7 +1995,7 @@
         <v>7900</v>
       </c>
       <c r="E49" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2167,16 +2167,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25700</v>
+        <v>26000</v>
       </c>
       <c r="E54" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="F54" s="3">
         <v>2800</v>
       </c>
       <c r="G54" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2340,7 +2340,7 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>1500</v>
@@ -2372,10 +2372,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
@@ -2547,7 +2547,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
         <v>4000</v>
@@ -2737,10 +2737,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="E72" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="F72" s="3">
         <v>-1300</v>
@@ -2877,10 +2877,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="E76" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="F76" s="3">
         <v>600</v>
@@ -2987,13 +2987,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>VMAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
-        <v>44074</v>
-      </c>
       <c r="G7" s="2">
-        <v>43890</v>
+        <v>44439</v>
       </c>
       <c r="H7" s="2">
-        <v>43799</v>
+        <v>44347</v>
       </c>
       <c r="I7" s="2">
-        <v>43708</v>
+        <v>44255</v>
       </c>
       <c r="J7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
-        <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>500</v>
-      </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +853,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>-100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -973,14 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="E17" s="3">
-        <v>3600</v>
+        <v>6800</v>
       </c>
       <c r="F17" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1105,40 +1140,43 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3100</v>
+        <v>-1200</v>
       </c>
       <c r="E21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3600</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>-3300</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+        <v>-1400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,48 +1222,54 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3300</v>
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1700</v>
+        <v>-2500</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1231,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1245,14 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3300</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-5400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3300</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-5400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1525,49 +1596,55 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-5400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-5400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
-        <v>44074</v>
-      </c>
       <c r="G38" s="2">
-        <v>43890</v>
+        <v>44439</v>
       </c>
       <c r="H38" s="2">
-        <v>43799</v>
+        <v>44347</v>
       </c>
       <c r="I38" s="2">
-        <v>43708</v>
+        <v>44255</v>
       </c>
       <c r="J38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,19 +1793,20 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7500</v>
+        <v>5900</v>
       </c>
       <c r="E41" s="3">
-        <v>11200</v>
+        <v>7300</v>
       </c>
       <c r="F41" s="3">
-        <v>1000</v>
+        <v>10900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1741,31 +1829,34 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1776,22 +1867,25 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
+        <v>700</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1905,25 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2100</v>
       </c>
-      <c r="F44" s="3">
-        <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>900</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1846,22 +1943,25 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1881,22 +1981,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="E46" s="3">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="F46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1400</v>
+        <v>14600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1916,20 +2019,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,28 +2051,31 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E48" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
+        <v>3200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1986,19 +2095,22 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E49" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2015,14 +2127,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2105,8 +2226,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2120,14 +2241,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,22 +2285,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="E54" s="3">
-        <v>28600</v>
+        <v>25200</v>
       </c>
       <c r="F54" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2400</v>
+        <v>27800</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2196,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>400</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2261,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,10 +2408,10 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2296,22 +2431,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2331,22 +2469,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="3">
         <v>2100</v>
       </c>
       <c r="F60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2366,22 +2507,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F61" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2401,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,10 +2560,10 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2436,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,22 +2697,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
         <v>4000</v>
       </c>
       <c r="F66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2700</v>
+        <v>3900</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2576,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,22 +2903,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11700</v>
+        <v>-12200</v>
       </c>
       <c r="E72" s="3">
-        <v>-8900</v>
+        <v>-11400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
+        <v>-8700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,22 +3055,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21900</v>
+        <v>20600</v>
       </c>
       <c r="E76" s="3">
-        <v>24600</v>
+        <v>21300</v>
       </c>
       <c r="F76" s="3">
-        <v>600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
+        <v>23900</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
-        <v>44074</v>
-      </c>
       <c r="G80" s="2">
-        <v>43890</v>
+        <v>44439</v>
       </c>
       <c r="H80" s="2">
-        <v>43799</v>
+        <v>44347</v>
       </c>
       <c r="I80" s="2">
-        <v>43708</v>
+        <v>44255</v>
       </c>
       <c r="J80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-5400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-3600</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3040,22 +3240,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,31 +3456,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3400</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
-        <v>-2700</v>
+        <v>-6000</v>
       </c>
       <c r="F89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-2500</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-1900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,31 +3512,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,31 +3624,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2700</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,31 +3830,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>26600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3621,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,31 +3906,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3700</v>
+        <v>-1400</v>
       </c>
       <c r="E102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>25100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3689,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>VMAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,37 +879,39 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>-100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,13 +1007,19 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -989,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1000,14 +1045,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>5900</v>
       </c>
       <c r="E17" s="3">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="F17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2600</v>
-      </c>
       <c r="G18" s="3">
-        <v>-2900</v>
+        <v>-5100</v>
       </c>
       <c r="H18" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1143,52 +1210,64 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G21" s="3">
-        <v>-2700</v>
+        <v>-4800</v>
       </c>
       <c r="H21" s="3">
-        <v>-3600</v>
+        <v>-2300</v>
       </c>
       <c r="I21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,67 +1304,79 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1295,14 +1386,20 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E26" s="3">
-        <v>-5400</v>
+        <v>-2900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="G26" s="3">
-        <v>-2900</v>
+        <v>-5200</v>
       </c>
       <c r="H26" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5400</v>
+        <v>-2900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2900</v>
+        <v>-5200</v>
       </c>
       <c r="H27" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1599,52 +1738,64 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
-        <v>-5400</v>
+        <v>-2900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2900</v>
+        <v>-5200</v>
       </c>
       <c r="H33" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
-        <v>-5400</v>
+        <v>-2900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2900</v>
+        <v>-5200</v>
       </c>
       <c r="H35" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1965,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
-        <v>7300</v>
+        <v>4200</v>
       </c>
       <c r="F41" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>13100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1858,11 +2037,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -1870,28 +2049,34 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1908,28 +2093,34 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1946,28 +2137,34 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1984,28 +2181,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12000</v>
+        <v>4700</v>
       </c>
       <c r="E46" s="3">
-        <v>12600</v>
+        <v>8400</v>
       </c>
       <c r="F46" s="3">
-        <v>14600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>15400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2022,28 +2225,34 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2054,34 +2263,40 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,28 +2313,34 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E49" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F49" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2130,14 +2351,20 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,13 +2445,19 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2226,14 +2465,14 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2244,14 +2483,20 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2533,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24900</v>
+        <v>17900</v>
       </c>
       <c r="E54" s="3">
-        <v>25200</v>
+        <v>21000</v>
       </c>
       <c r="F54" s="3">
-        <v>27800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>28100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2617,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2396,13 +2657,19 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2410,14 +2677,14 @@
       <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2434,28 +2701,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2472,28 +2745,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
         <v>2100</v>
       </c>
       <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2510,29 +2789,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,14 +2853,14 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +3009,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,28 +3247,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12200</v>
+        <v>-19200</v>
       </c>
       <c r="E72" s="3">
-        <v>-11400</v>
+        <v>-14500</v>
       </c>
       <c r="F72" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-11700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-7000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3423,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20600</v>
+        <v>13100</v>
       </c>
       <c r="E76" s="3">
-        <v>21300</v>
+        <v>17400</v>
       </c>
       <c r="F76" s="3">
-        <v>23900</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>24200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
-        <v>-5400</v>
+        <v>-2900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2900</v>
+        <v>-5200</v>
       </c>
       <c r="H81" s="3">
-        <v>-3600</v>
+        <v>-2500</v>
       </c>
       <c r="I81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,16 +3637,16 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3257,11 +3654,11 @@
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1200</v>
+        <v>-2900</v>
       </c>
       <c r="E89" s="3">
-        <v>-6000</v>
+        <v>-1100</v>
       </c>
       <c r="F89" s="3">
-        <v>-2600</v>
+        <v>-1100</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-5800</v>
       </c>
       <c r="H89" s="3">
         <v>-2500</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,13 +3952,15 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
@@ -3528,22 +3969,22 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,28 +4095,28 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4000</v>
+        <v>-400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2700</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,37 +4333,43 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>26600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-4400</v>
+        <v>-6100</v>
       </c>
       <c r="H102" s="3">
-        <v>-5300</v>
+        <v>-2600</v>
       </c>
       <c r="I102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>VMAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
-        <v>1400</v>
-      </c>
       <c r="G8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -767,104 +771,113 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G9" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
-        <v>600</v>
-      </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,40 +894,41 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>-100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,20 +1048,20 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E17" s="3">
-        <v>5200</v>
+        <v>6100</v>
       </c>
       <c r="F17" s="3">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="G17" s="3">
-        <v>6600</v>
+        <v>2900</v>
       </c>
       <c r="H17" s="3">
         <v>3300</v>
       </c>
       <c r="I17" s="3">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="J17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1216,49 +1250,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1300</v>
-      </c>
       <c r="G23" s="3">
-        <v>-5200</v>
+        <v>-1400</v>
       </c>
       <c r="H23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,23 +1409,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1392,14 +1438,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1744,58 +1814,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2053,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
-        <v>4200</v>
-      </c>
       <c r="F41" s="3">
-        <v>5700</v>
+        <v>4300</v>
       </c>
       <c r="G41" s="3">
-        <v>7100</v>
+        <v>5800</v>
       </c>
       <c r="H41" s="3">
-        <v>10500</v>
+        <v>7200</v>
       </c>
       <c r="I41" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,23 +2157,23 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,23 +2204,23 @@
         <v>1900</v>
       </c>
       <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,32 +2239,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
-        <v>1800</v>
-      </c>
       <c r="F45" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,31 +2286,34 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4700</v>
+        <v>6200</v>
       </c>
       <c r="E46" s="3">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="F46" s="3">
-        <v>11600</v>
+        <v>8600</v>
       </c>
       <c r="G46" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="H46" s="3">
-        <v>14000</v>
+        <v>12400</v>
       </c>
       <c r="I46" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>14400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2231,31 +2333,34 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
-        <v>1800</v>
-      </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="H47" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>2100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2269,38 +2374,41 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,31 +2427,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F49" s="3">
         <v>7800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7600</v>
       </c>
-      <c r="F49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7400</v>
-      </c>
       <c r="H49" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2568,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2474,8 +2594,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2662,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="E54" s="3">
-        <v>21000</v>
+        <v>18300</v>
       </c>
       <c r="F54" s="3">
-        <v>24000</v>
+        <v>21600</v>
       </c>
       <c r="G54" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="H54" s="3">
-        <v>26700</v>
+        <v>24900</v>
       </c>
       <c r="I54" s="3">
-        <v>28100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>28700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,16 +2794,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2681,13 +2815,13 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2707,32 +2841,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
       </c>
       <c r="F59" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
       <c r="I59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,31 +2888,34 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
-        <v>2400</v>
-      </c>
       <c r="G60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
-        <v>1900</v>
-      </c>
       <c r="I60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2795,31 +2935,34 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>1700</v>
-      </c>
       <c r="H61" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I61" s="3">
         <v>1800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2862,8 +3008,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3170,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4800</v>
+        <v>7700</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>4900</v>
       </c>
       <c r="F66" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G66" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="H66" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>3900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3424,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19200</v>
+        <v>-24600</v>
       </c>
       <c r="E72" s="3">
-        <v>-14500</v>
+        <v>-19700</v>
       </c>
       <c r="F72" s="3">
-        <v>-11700</v>
+        <v>-14900</v>
       </c>
       <c r="G72" s="3">
-        <v>-11000</v>
+        <v>-12000</v>
       </c>
       <c r="H72" s="3">
-        <v>-8300</v>
+        <v>-11200</v>
       </c>
       <c r="I72" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3612,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13100</v>
+        <v>9800</v>
       </c>
       <c r="E76" s="3">
-        <v>17400</v>
+        <v>13400</v>
       </c>
       <c r="F76" s="3">
-        <v>19900</v>
+        <v>17800</v>
       </c>
       <c r="G76" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="H76" s="3">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="I76" s="3">
-        <v>24200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>23600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,13 +3842,13 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3660,8 +3859,8 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4106,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1100</v>
       </c>
       <c r="F89" s="3">
         <v>-1100</v>
       </c>
       <c r="G89" s="3">
-        <v>-5800</v>
+        <v>-1200</v>
       </c>
       <c r="H89" s="3">
-        <v>-2500</v>
+        <v>-3300</v>
       </c>
       <c r="I89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,40 +4174,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,31 +4325,31 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4567,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>26600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4661,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>1800</v>
       </c>
       <c r="E102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-6100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4300</v>
+        <v>-2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -2442,10 +2442,10 @@
         <v>8000</v>
       </c>
       <c r="F49" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G49" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H49" s="3">
         <v>7600</v>
@@ -2677,7 +2677,7 @@
         <v>18300</v>
       </c>
       <c r="F54" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="G54" s="3">
         <v>24500</v>
@@ -3636,7 +3636,7 @@
         <v>21000</v>
       </c>
       <c r="I76" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="J76" s="3">
         <v>24800</v>

--- a/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VMAR_QTR_FIN.xlsx
@@ -791,13 +791,13 @@
         <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E17" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F17" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G17" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H17" s="3">
         <v>3300</v>
       </c>
       <c r="I17" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J17" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K17" s="3">
         <v>4100</v>
@@ -1152,10 +1152,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E18" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F18" s="3">
         <v>-2800</v>
@@ -1164,7 +1164,7 @@
         <v>-1400</v>
       </c>
       <c r="H18" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I18" s="3">
         <v>-2500</v>
@@ -1265,13 +1265,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E21" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="F21" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G21" s="3">
         <v>-1200</v>
@@ -1283,7 +1283,7 @@
         <v>-2300</v>
       </c>
       <c r="J21" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K21" s="3">
         <v>-3400</v>
@@ -1359,19 +1359,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F23" s="3">
         <v>-2800</v>
       </c>
       <c r="G23" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I23" s="3">
         <v>-2500</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E26" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G26" s="3">
         <v>-1400</v>
@@ -1547,13 +1547,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F27" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G27" s="3">
         <v>-1400</v>
@@ -1829,13 +1829,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F33" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G33" s="3">
         <v>-1400</v>
@@ -1923,13 +1923,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F35" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G35" s="3">
         <v>-1400</v>
@@ -2066,19 +2066,19 @@
         <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G41" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H41" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I41" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="J41" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2160,7 +2160,7 @@
         <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
@@ -2201,13 +2201,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
-        <v>2000</v>
-      </c>
       <c r="F44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G44" s="3">
         <v>2400</v>
@@ -2216,10 +2216,10 @@
         <v>2200</v>
       </c>
       <c r="I44" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2254,7 +2254,7 @@
         <v>900</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
         <v>2500</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E46" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F46" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G46" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="H46" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="I46" s="3">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="J46" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2351,10 +2351,10 @@
         <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
@@ -2392,22 +2392,22 @@
         <v>3300</v>
       </c>
       <c r="E48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F48" s="3">
         <v>3300</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
         <v>3300</v>
       </c>
       <c r="I48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2436,25 +2436,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F49" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I49" s="3">
         <v>7500</v>
       </c>
-      <c r="H49" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7700</v>
-      </c>
       <c r="J49" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="E54" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="F54" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="G54" s="3">
-        <v>24500</v>
+        <v>24100</v>
       </c>
       <c r="H54" s="3">
-        <v>24900</v>
+        <v>24400</v>
       </c>
       <c r="I54" s="3">
-        <v>27400</v>
+        <v>26900</v>
       </c>
       <c r="J54" s="3">
-        <v>28700</v>
+        <v>28200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2859,13 +2859,13 @@
         <v>1100</v>
       </c>
       <c r="G59" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
       </c>
       <c r="I59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -2906,13 +2906,13 @@
         <v>2100</v>
       </c>
       <c r="G60" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H60" s="3">
         <v>2000</v>
       </c>
       <c r="I60" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
@@ -2956,10 +2956,10 @@
         <v>1600</v>
       </c>
       <c r="H61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J61" s="3">
         <v>1800</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E66" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H66" s="3">
         <v>3800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3900</v>
       </c>
       <c r="I66" s="3">
         <v>3800</v>
       </c>
       <c r="J66" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="E72" s="3">
-        <v>-19700</v>
+        <v>-19300</v>
       </c>
       <c r="F72" s="3">
-        <v>-14900</v>
+        <v>-14600</v>
       </c>
       <c r="G72" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="H72" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="I72" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="J72" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E76" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="F76" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="G76" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="H76" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="I76" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="J76" s="3">
-        <v>24800</v>
+        <v>24400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3767,13 +3767,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F81" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G81" s="3">
         <v>-1400</v>
@@ -4124,13 +4124,13 @@
         <v>-1100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="I89" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -4322,7 +4322,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4340,7 +4340,7 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K94" s="3">
         <v>-2600</v>
@@ -4576,7 +4576,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -4673,7 +4673,7 @@
         <v>1800</v>
       </c>
       <c r="E102" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F102" s="3">
         <v>-1500</v>
@@ -4685,10 +4685,10 @@
         <v>-3500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J102" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="K102" s="3">
         <v>-5100</v>
